--- a/thusigsiclab_articles.xlsx
+++ b/thusigsiclab_articles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,742 +456,909 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Hantao Zhou, Rui Yang, Yachao Zhang, Haoran Duan, Yawen Huang, Runze Hu, Xiu Li,
+												Yefeng Zheng, Fellow IEEE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UniHead: Unifying Multi-Perception for Detection Heads[J]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IEEE
+														Transactions on Neural Networks and Learning Systems,
+												2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2309.13242</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Jiafei Lyu, Le Wan, Zongqing Lu and Xiu Li</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Off-Policy RL Algorithms Can be Sample-Efficient
 													for Continuous Control via Sample Multiple Reuse[J]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Information Sciences, 2024, Volume:666</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://www.sciencedirect.com/science/article/abs/pii/S0020025524002846</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jiafei Lyu, Le Wan, Xiu Li and  Zongqing Lu</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A survey of camouflaged object detection and beyond[J]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+CAAI Artificial Intelligence Research, 2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2408.14562</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jiafei Lyu, Le Wan, Xiu Li and  Zongqing Lu</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Understanding what affects generalization gap in visual reinforcement learning: Theory and empirical evidence[J]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Journal of Artificial Intelligence Research, 2024, Volume:80</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2402.02701</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mengbei Yan, Jiafei Lyu, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Enhancing visual reinforcement learning with State–Action Representation[J]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Knowledge-Based Systems, 304 (2024): 112487</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/science/article/pii/S0950705124011213</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aicheng Gong, Kai Yang, Jiafei Lyu, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A two-stage reinforcement learning-based approach for multi-entity task allocation[J]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Engineering Applications of Artificial Intelligence, 136 (2024): 108906</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/science/article/pii/S0952197624010649</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jingyi Tang, Zeyu Chen, Bowen Fu, Wenjie Lu, Shengquan Li, Xiu
+													Li, and Xiangyang Ji</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ROV6D: 6D Pose Estimation Benchmark Dataset for
+													Underwater Remotely Operated Vehicles[J]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IEEE Robotics
+														and Automation Letters, 2024, vol</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/abstract/document/10313927</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>He C, Li K, Xu G, Yan J, Tang L, Zhang Y, Wang Y, Li X</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve"> Hqg-net: Unpaired medical image enhancement with
 													high-quality guidance[J]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve"> IEEE Transactions on Neural
 														Networks and Learning Systems, 2023</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/abstract/document/10272680</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jingyi Tang, Zeyu Chen, Bowen Fu, Wenjie Lu, Shengquan Li, Xiu
-													Li, and Xiangyang Ji</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ROV6D: 6D Pose Estimation Benchmark Dataset for
-													Underwater Remotely Operated Vehicles[J]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> IEEE Robotics
-														and Automation Letters, 2024, vol</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ieeexplore.ieee.org/abstract/document/10313927</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Hantao Zhou, Rui Yang, Runze Hu, Chang Shu, Xiaochu Tang, and Xiu
 													Li</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve"> ETDNet: Efficient Transformer-based Detection
 													Network for Surface Defect Detection[J]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve"> IEEE Transactions
 														on Instrumentation and Measurement, 2023, vol</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/abstract/document/10227321/</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Meng C, Zhao Z, Guo W, Zhang Y, Wu H, Gao C, Li D, Li X, et al</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 												Coarse-to-fine knowledge-enhanced multi-interest
 													learning framework for multi-behavior recommendation[J]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ACM Transactions on Information Systems, 2023, 42(1):
 												1-27</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://dl.acm.org/doi/10.1145/3606369</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Lan S, Li X, Guo Z</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve"> An Adaptive
 													Region-Based Transformer for Nonrigid Medical Image Registration
 													With a Self-Constructing Latent Graph[J]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve"> IEEE
 														Transactions on Neural Networks and Learning Systems,
 												2023</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/10191036</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Yu B, Li X, Li W, Zhou J, Lu J</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve"> Discrepancy-Aware Meta-Learning for Zero-Shot
 													Face Manipulation Detection[J]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve"> IEEE Transactions on Image
 														Processing, 2023, vol</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/10173741</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Zhang T, Lin Z, Wang Y, Ye D, Fu Q, Yang W, Wang X, Liang B, Yuan B,
 												Li X</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve"> Dynamics-Adaptive Continual
 													Reinforcement Learning via Progressive Contextualization[J]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 IEEE Transactions on Neural Networks and Learning Systems,
 												2023</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2209.00347</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Lan S, Li X, Guo Z</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve"> DRT:
 													Deformable Region-based Transformer for Nonrigid Medical Image
 													Registration with a Constraint of Orientation[J]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve"> IEEE
 														Transactions on Instrumentation and Measurement, 2023,
 												vol</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/10121195</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Yuan Z, Pan W, Zhao X, Zhao F, Xu Z, Li X, et al</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve"> Publisher Correction: SODB facilitates
 													comprehensive exploration of spatial omics data[J]</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve"> Nature
 														methods, 2023, 20(4): 623</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://www.nature.com/articles/s41592-023-01844-9</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>SCI</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Tang M, Wang Z, Zeng Z, Li X, et al</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve"> Stay in Grid: Improving Video Captioning via
 													Fully Grid-level Representation[J]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve"> IEEE Transactions on
 														Circuits and Systems for Video Technology, 2022, vol</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/9999686</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Huo Y, Li X, Zhang X, Li X, et al</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve"> Adaptive Intention-Driven Variable Impedance
 													Control for Wearable Robots With Compliant Actuators[J]</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 IEEE Transactions on Control Systems Technology, 2022,
 												31(3): 1308-1323</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/9962240</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Chen S, Guo Z, Li X, et al</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve"> Query2Set: Single-to-Multiple Partial
 													Fingerprint Recognition Based on Attention Mechanism[J]</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 IEEE Transactions on Information Forensics and Security,
 												2022, 17: 1243-1253</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/9733330</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Yan J, Chen H, Li X, et al</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve"> Deep
 													contrastive learning based tissue clustering for annotation-free
 													histopathology image analysis[J]</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve"> Computerized Medical
 														Imaging and Graphics, 2022, 97: 102053</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://www.sciencedirect.com/science/article/pii/S089561112200026X/pdfft?md5=57f18d92e9b23141be33ad9e578f8976&amp;pid=1-s2.0-S089561112200026X-main.pdf</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Mazandarani M, Li X</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve"> Interval
 													type-2 fractional fuzzy inference systems: Towards an evolution in
 													fuzzy inference systems[J]</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve"> Expert Systems with
 														Applications, 2022, 189: 115947</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://www.sciencedirect.com/science/article/pii/S0957417421013002</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Yu B, Lu J, Li X, Zhou J</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve"> Salience-Aware Face Presentation Attack
 													Detection via Deep Reinforcement Learning[J]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>IEEE
 														Transactions on Information Forensics and Security, 2022
 												vol</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/9650907</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>SCI</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Li S, Li X, Lu J, Zhou J</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve"> Structure-adaptive Neighborhood Preserving
 													Hashing for Scalable Video Search[J]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve"> IEEE Transactions on
 														Circuits and Systems for Video Technology, 2021, JCR Q1,
 												vol</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/9467321</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Xu Z, Luo J, Yan J, Li X, et al</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve"> F3RNet: full-resolution residual registration
 													network for deformable image registration[J]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 International Journal of Computer Assisted Radiology and
 														Surgery, 2021, 16(6): 923-932</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://link.springer.com/article/10.1007/s11548-021-02359-4#Dataset%20and%20Implementation</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Li X, Zhang X, Li X, et al</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve"> BEAR-H: An Intelligent Bilateral Exoskeletal
 													Assistive Robot for Smart Rehabilitation[J]</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve"> IEEE Robotics
 														&amp; Automation Magazine, 2021, vol</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/9656918/keywords#full-text-header</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Hao R, Lu B, Cheng Y, Li X, et al</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve"> A steel surface defect inspection approach
 													towards smart industrial monitoring[J]</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve"> Journal of
 														Intelligent Manufacturing, 2021, 32(7): 1833-1843</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>https://link.springer.com/article/10.1007/s10845-020-01670-2</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Mo Y, Wu Q, Li X, et al</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve"> Remaining
 													useful life estimation via transformer encoder enhanced by a gated
 													convolutional unit[J]</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve"> Journal of Intelligent
 														Manufacturing, 2021: 1-10</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://link.springer.com/content/pdf/10.1007/s10845-021-01750-x.pdf</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Zhang Y, Liu Y, Jiang S, Dixit K, Song P, Zhang X, Ji X, Li X</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
 												Neural network model assisted Fourier
@@ -1199,382 +1366,897 @@
 													constraint[J]</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve"> Journal of Biomedical Optics, 2021,
 												26(3) : 036502, JCR Q2</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/33768741/</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Liu Y, Gu K, Li X, et al</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve"> Blind
 													image quality assessment by natural scene statistics and perceptual
 													characteristics[J]</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve"> ACM Transactions on Multimedia
 														Computing, Communications, and Applications (TOMM),
 												2020, 16(3): 91-111</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>https://dl.acm.org/doi/10.1145/3414837</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Li S, Chen Z, Li X, Lu J, Zhou J</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve"> Unsupervised variational video hashing with
 													1d-cnn-lstm networks[J]</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve"> IEEE Transactions on
 														Multimedia, 2020, 22(6): 1542-1554, JCR Q1</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/8861413</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Liu Y, Gu K, Zhang Y, Li X, Zhai G, Zhao D, Gao W</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve"> Unsupervised Blind Image Quality Evaluation via
 													Statistical Measurements of Structure, Naturalness, and
 													Perception[J]</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve"> IEEE Transactions on Circuits and Systems for
 														Video Technology, 2020, 30(4): 929-943, JCR Q1</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/8648473</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Yan J, Chen S, Zhang Y, Li X, et al</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve"> Neural Architecture Search for compressed
 													sensing Magnetic Resonance image reconstruction[J]</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Computerized Medical Imaging and Graphics, 2020, 85:
 												101784</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>https://www.sciencedirect.com/science/article/pii/S089561112030077X</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Chengyu Fang, Fengyang Xiao, Chunming He, Yulun Zhang, Longxiang Tang, Yuelin Zhang, Kai Li, Xiu Li</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Real-world Image Dehazing with Coherence-based Label Generator and Cooperative Unfolding Network[C]</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Liu Zeyuan, Yang Kai, Jiafei Lyu,Xiu Li</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDSA: Conservative Denoising Score-based Algorithm for Offline Reinforcement Learning[C]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In Proceedings of the 24rd International Conference on Autonomous Agents and Multiagent Systems, 2025</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2406.07541</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Z Qiao, J Lyu, K Jiao, Q Liu, X Li</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+												SUMO: Search-Based Uncertainty Estimation for Model-Based Offline Reinforcement Learning[C]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In The Thirty-Ninth AAAI Conference on Artificial Intelligence (AAAI), 2025</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2408.12970</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Shengjie Sun, Jiafei Lyu, Lu Li, Jiazhe Guo, Mengbei Yan, Runze Liu, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Enhancing Visual Generalization in Reinforcement Learning with Cycling Augmentation[C]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In International Conference on Artificial Neural Networks, Volume:15019, pp</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/content/pdf/10.1007/978-3-031-72341-4.pdf</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jian Tao, Yangkun Chen, Yang Zhang, Kai Yang, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Multi-agent Exploration with Sub-state Entropy Estimation[C]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In 2024 International Joint Conference on Neural Networks (IJCNN), pp 1-9, IEEE, 2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=10649966</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Huan Liao, Haonan Han, Kai Yang, Tianjiao Du, Rui Yang, Zunnan Xu, Qinmei Xu, Jingquan Liu, Jiasheng Lu, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BATON: Aligning Text-to-Audio Model Using Human Preference Feedback[C]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In International Joint Conferences on Artificial Intelligence, 2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.ijcai.org/proceedings/2024/0502.pdf</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>EI</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kai Yang, Zhirui Fang, Xiu Li, Jian Tao</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMBE: Curiosity-driven Model-Based Exploration for Multi-Agent Reinforcement Learning in Sparse Reward Settings[C]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In 2024 International Joint Conference on Neural Networks (IJCNN), pp</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=10650769</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Zhongjian Qiao, Jiafei Lyu, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mind the model, Not the agent: The primacy bias in Model-based RL[C]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In European Conference on Artificial Intelligence, 2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2310.15017</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jiafei Lyu, Kang Xu, Jiacheng Xu, Mengbei Yan, Jingwen Yang, Zongzhang Zhang, Chenjia Bai, Zongqing Lu, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODRL: A Benchmark for Off-Dynamics Reinforcement Learning[C]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In The Thirty-eight Conference on Neural Information Processing Systems Datasets and Benchmarks Track, 2024</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2410.20750</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>EI</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Runze Liu, Yali Du, Fengshuo Bai, Jiafei Lyu, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEARL: Zero-shot Cross-task Preference Alignment and Robust Reward Learning for Robotic Manipulation[C]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In International Conference on Machine Learning, 2024</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2306.03615</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>EI</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kai Yang, Jian Tao, Jiafei Lyu, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Exploration and Anti-Exploration with Distributional Random Network Distillation[C]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In Forty-first International Conference on Machine Learning, 2024</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2401.09750</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Lu Li, Jiafei Lyu, Guozheng Ma, Zilin Wang, Zhenjie Yang, Xiu Li, Zhiheng Li</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Normalization Enhances Generalization in Visual Reinforcement Learning[C]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In Proceedings of the 23rd International Conference on Autonomous Agents and Multiagent Systems, pp</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2306.00656</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>EI</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jiafei Lyu, Le Wan, Xiu Li, Zongqing Lu</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Towards understanding how to reduce generalization gap in visual reinforcement learning[C]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In Proceedings of the 23rd International Conference on Autonomous Agents and Multiagent Systems, pp</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.ifaamas.org/Proceedings/aamas2024/pdfs/p2369.pdf</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>EI</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Z Chen, J Tang, G Wang, S Li, X Li, X Ji, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UW-SDF: Exploiting Hybrid Geometric Priors for Neural SDF Reconstruction from Underwater Multi-view Monocular Images[C]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The 2024 IEEE/RSJ International Conference on Intelligent Robots and Systems (IROS 24), 2024</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2410.08092</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Zunnan Xu, Yukang Lin, Haonan Han, Sicheng Yang, Ronghui Li, Yachao Zhang, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MambaTalk: Efficient Holistic Gesture Synthesis with Selective State Space Models[C]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve"> Advances in Neural Information Processing
 														Systems (NeurIPS-24), 2024</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2403.09471</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jiangshan Wang, Yue Ma, Jiayi Guo, Yicheng Xiao, Gao Huang, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COVE: Unleashing the Diffusion Feature Correspondence for Consistent Video Editing[C]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Advances in Neural Information Processing
+														Systems (NeurIPS-24), 2024</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2406.08850</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chengyu Fang, Fengyang Xiao, Chunming He, Yulun Zhang, Longxiang Tang, Yuelin Zhang, Kai Li, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Real-world Image Dehazing with Coherence-based Label Generator and Cooperative Unfolding Network[C]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Advances in Neural Information Processing
+														Systems (NeurIPS-24), 2024</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>https://arxiv.org/pdf/2406.07966</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Yicheng Xiao, Lin Song, Shaoli Huang, Jiangshan Wang, Siyu Song, Yixiao Ge, Xiu Li, Ying Shan</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MambaTree: Tree Topology is All You Need in State Space Model[C]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Thirty-eighth Annual Conference on Neural Information Processing Systems(NeurIPS-24), 2024</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://openreview.net/pdf?id=W8rFsaKr4m</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Jingyi Tang, Gu Wang, Zeyu Chen, Shengquan Li, Xiu Li, Xiangyang Ji</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve"> FAFA: Frequency-Aware Flow-Aided Self-Supervision for Underwater Object Pose Estimation[C]</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve"> European
 														Conference on Computer Vision (ECCV-24), 2024</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2409.16600</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Zeping Ren，Shaoli Huang, Xiu Li</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve"> Realistic Human Motion Generation with Cross-Diffusion Models[C]</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve"> European
 														Conference on Computer Vision (ECCV-24), 2024</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2312.10993</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>EI</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>Yifan Pu, Zhuofan Xia, Jiayi Guo, Dongchen Han, Qixiu Li, Duo Li, Yuhui Yuan, Ji Li, Yizeng Han, Shiji Song, Gao Huang, Xiu Li</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve"> Efficient Diffusion Transformer with Step-wise Dynamic Attention Mediators[C]</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve"> European
 														Conference on Computer Vision (ECCV-24), 2024</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>https://www.arxiv.org/abs/2408.05710</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>Jiangshan Wang, Yifan Pu, Yizeng Han, Jiayi Guo, Yiru Wang, Xiu Li, Gao Huang</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve"> GRA: Detecting Oriented Objects through Group-wise Rotating and Attention[C]</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve"> European
 														Conference on Computer Vision (ECCV-24), 2024</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2403.11127</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>EI</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>Longxiang Tang, Zhuotao Tian, Kai Li, Chunming He, Hantao Zhou,
 												Hengshuang Zhao, Xiu Li, Jiaya Jia</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve"> Mind the
 													Interference: Retaining Pre-trained Knowledge in Parameter Efficient
 													Continual Learning of Vision-Language Models[C]</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve"> European
 														Conference on Computer Vision (ECCV-24), 2024</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2407.05342</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>EI</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>Hantao Zhou, Runze Hu, Xiu Li</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve"> Video
 													Object Segmentation with Dynamic Query Modulation[C]</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve"> In
 														Proceedings of the 2024 IEEE
@@ -1582,1202 +2264,1235 @@
 														(ICME-24)</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2403.11529</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>Jiafei Lyu, Chenjia Bai, Jingwen Yang, Zongqing Lu, Xiu Li</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cross-Domain Policy Adaptation by Capturing
 													Representation Mismatch[C]</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve"> ICML, 2024</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>https://arxiv.org/pdf/2405.15369</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>Ronghui Li, YuXiang Zhang, Yachao Zhang, Hongwen Zhang, Jie Guo, Yan
 												Zhang, Yebin Liu, Xiu Li</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve"> Lodge: A
 													Coarse to Fine Diffusion Network for Long Dance Generation Guided by
 													the Characteristic Dance Primitives[C]</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of
 														the IEEE/CVF Conference on
 														Computer Vision and Pattern Recognition (CVPR-24), 2024</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2403.10518</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>Kai Yang, Jian Tao, Jiafei Lyu, Chunjiang Ge, Qimai Li, Jiaxin Chen,
 												Weihan Shen, Xiaolong Zhu, Xiu Li</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve"> Using
 													Human Feedback to Fine-tune Diffusion Models without Any Reward
 													Model[C]</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the IEEE/CVF Conference on
 														Computer Vision and Pattern Recognition (CVPR-24), 2024</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2311.13231</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>Yicheng Xiao, Zhuoyan Luo, Yong Liu, Yue Ma, Hengwei Bian, Yatai Ji,
 												Yujiu Yang, Xiu Li</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve"> Bridging the Gap: A Unified Video Comprehension
 													Framework for Moment Retrieval and Highlight Detection[C]</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">
 In Proceedings of the IEEE/CVF Conference on Computer Vision and
 														Pattern Recognition (CVPR-24), 2024</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>https://arxiv.org/pdf/2311.16464.pdf</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>Ronghui Li, Yuqin Dai, Yachao Zhang, Jun Li, Jian Yang, Jie Guo, Xiu
 													Li</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve"> Exploring Multi-Modal Control in Music-Driven
 													Dance Generation[C]</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the International
 														Conference on Acoustics, Speech and Signal Processing
 														(ICASSP-24)</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>https://arxiv.org/pdf/2401.01382.pdf</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>Jiafei Lyu, Xiaoteng Ma, Le Wan, Runze Liu, Xiu Li, et al</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve"> SEABO: A
 													Simple Search-Based Method for Offline Imitation Learning[C]</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">
 In Proceedings of the International Conference on Learning
 														Representations (ICLR-24), 2024</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2402.03807</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>Chunming He, Kai Li, Yachao Zhang, Yulun Zhang, Zhenhua Guo, Xiu
 													Li, et al</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve"> Strategic Preys Make Acute Predators: Enhancing
 													Camouflaged Object Detectors by Generating Camouflaged
 													Objects[C]</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the International Conference
 														on Learning Representations (ICLR-24), 2024</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>https://arxiv.org/pdf/2308.03166.pdf</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>EI</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>Yachao Zhang, Runze Hu, Ronghui Li, Yanyun Qu, Yuan Xie, Xiu Li</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">
 												Cross-Modal Match for Language Conditioned 3D
 													Object Grounding[C]</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the Association for
 														the Advance of Artificial Intelligence (AAAI-24), 2024</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>https://ojs.aaai.org/index.php/AAAI/article/view/28566/29100</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>Yue Ma, Yingqing He, Xiaodong Cun, Xintao Wang, Siran Chen, Ying Shan,
 												Xiu Li, et al</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve"> Follow Your Pose: Pose-Guided Text-to-Video
 													Generation using Pose-Free Videos[C]</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of
 														the Association for the Advance of Artificial Intelligence
 														(AAAI-24), 2024</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2304.01186</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>Zunnan Xu, Yachao Zhang, Sicheng Yang, Ronghui Li, Xiu Li</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chain of
 													Generation: Multi-Modal Gesture Synthesis via Cascaded Conditional
 													Control[C]</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the Association for the
 														Advance of Artificial Intelligence (AAAI-24), 2024</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2312.15900</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>C Meng, H Zhang, W Guo, H Guo, H Liu, Y Zhang, H Zheng, R Tang, X
 													Li, et al</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve"> Hierarchical Projection Enhanced Multi-Behavior
 													Recommendation[C]</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the 29th ACM SIGKDD
 														Conference on Knowledge Discovery and Data Mining
 														(SIGKDD-23), 2023: 4649-4660</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>https://dl.acm.org/doi/10.1145/3580305.3599838</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>Chang Meng, Chenhao Zhai, Yu Yang, Hengyu Zhang, Xiu Li</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve"> Parallel
 													Knowledge Enhancement based Framework for Multi-behavior
 													Recommendation[C]</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the ACM International
 														Conference on Information &amp; Knowledge Management
 														(CIKM-23), 2023: 4649-4660</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2308.04807</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>C He, K Li, Y Zhang, L Tang, Y Zhang, X Li</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve"> Camouflaged object detection with feature
 													decomposition and edge reconstruction[C]</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings
 														of the IEEE/CVF Conference on Computer Vision and Pattern
 														Recognition (CVPR-23), 2023: 22046-22055</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>https://openaccess.thecvf.com/content/CVPR2023/html/He_Camouflaged_Object_Detection_With_Feature_Decomposition_and_Edge_Reconstruction_CVPR_2023_paper.html</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>C He, K Li, Y Zhang, L Tang, Y Zhang, Z Guo, X Li</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve"> Weakly-Supervised Concealed Object Segmentation
 													with SAM-based Pseudo Labeling and Multi-scale Feature
 													Grouping[C]</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve"> Advances in Neural Information Processing
 														Systems (NeurIPS-23), 2023</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2305.11003</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>C He, K Li, G Xu, Y Zhang, R Hu, Z Guo, X Li</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve"> Degradation-Resistant Unfolding Network for
 													Heterogeneous Image Fusion[C]</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the
 														IEEE/CVF International Conference on Computer Vision
 														(ICCV-23), 2023: 12611-12621</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>https://openaccess.thecvf.com/content/ICCV2023/html/He_Degradation-Resistant_Unfolding_Network_for_Heterogeneous_Image_Fusion_ICCV_2023_paper.html</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>Rui Yang, Lin Song, Yixiao Ge, Xiu Li</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve"> BoxSnake: Polygonal Instance Segmentation with
 													Box Supervision[C]</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the IEEE/CVF
 														International Conference on Computer Vision (ICCV-23),
 												2023: 2303</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>https://openaccess.thecvf.com/content/ICCV2023/papers/Yang_BoxSnake_Polygonal_Instance_Segmentation_with_Box_Supervision_ICCV_2023_paper.pdf</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>Yicheng Xiao, Yue Ma, Shuyan Li, Hantao Zhou, Ran Liao, Xiu Li</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">
 												SemanticAC: Semantics-Assisted Framework for
 													Audio Classification[C]</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the
 														International Conference on Acoustics, Speech and Signal
 														Processing (ICASSP-23)</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2302.05940</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>L Tang, K Li, C He, Y Zhang, X Li</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve"> Consistency Regularization for Generalizable
 													Source-free Domain Adaptation[C]</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the
 														IEEE/CVF International Conference on Computer Vision
 														(ICCV-23), 2023: 4323-4333</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/10350421</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>Ronghui Li, Junfan Zhao, Yachao Zhang, Mingyang Su, Zeping Ren, Han
 												Zhang, Yansong Tang, Xiu Li</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve"> FineDance: A Fine-grained Choreography Dataset
 													for 3D Full Body Dance Generation[C]</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of
 														the IEEE/CVF International Conference on Computer Vision
 														(ICCV-23), 2023</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>https://openaccess.thecvf.com/content/ICCV2023/papers/Li_FineDance_A_Fine-grained_Choreography_Dataset_for_3D_Full_Body_Dance_ICCV_2023_paper.pdf</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>Y Tang, J Liu, A Liu, B Yang, W Dai, Y Rao, J Lu, J Zhou, X Li</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">
 												Flag3d: A 3d fitness activity dataset
 													with language instruction[C]</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the
 														IEEE/CVF Conference on Computer Vision and Pattern Recognition
 														(CVPR-23), 2023: 22106-22117</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2212.04638</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>W Li, X Huang, Z Zhu, Y Tang, X Li, J Zhou, J Lu</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ordinalclip: Learning rank prompts for
 													language-guided ordinal regression[C]</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve"> Advances in Neural
 														Information Processing Systems (NeurIPS-22), 2022, 35:
 												35313-35325</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2206.02338</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>J Lyu, X Ma, X Li, Z Lu</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve"> Mildly conservative Q-learning for offline
 													reinforcement learning[C]</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve"> Advances in Neural Information
 														Processing Systems (NeurIPS-22), 2022, 35: 1711-1724</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>https://proceedings.neurips.cc/paper_files/paper/2022/file/0b5669c3b07bb8429af19a7919376ff5-Paper-Conference.pdf</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>J Lyu, X Li, Z Lu</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve"> Double Check Your State Before Trusting It:
 													Confidence-Aware Bidirectional Offline Model-Based
 													Imagination[C]</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve"> Advances in Neural Information Processing
 														Systems (NeurIPS-22), 2022, 35: 38218-38231</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>https://proceedings.neurips.cc/paper_files/paper/2022/file/f9e2800a251fa9107a008104f47c45d1-Paper-Conference.pdf</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>R Yang, H Ma, J Wu, Y Tang, X Xiao, M Zheng, X Li</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve"> Scalablevit: Rethinking the context-oriented
 													generalization of vision transformer[C]</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve"> European
 														Conference on Computer Vision (ECCV-22), 2022: 480-496</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2203.10790</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Yukang Lin, Haonan Han, Chaoqun Gong, Zunnan Xu, Yachao Zhang, Xiu Li</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Consistent123: One Image to Highly Consistent 3D Asset Using Case-Aware Diffusion Priors[C]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In Proceedings of the 32nd ACM
+														International Conference on Multimedia (ACM MM-24), 2024:6715-6724</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2309.17261</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Z Chen, C Wang, H Zhao, B Yuan, X Li</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve"> D2Animator: Dual Distillation of StyleGAN For
 													High-Resolution Face Animation[C]</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the
 														30th ACM International Conference on Multimedia (ACM
 														MM-22), 2022: 1769-1778</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>https://dl.acm.org/doi/10.1145/3503161.3548002</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>Y Ma, Y Wang, Y Wu, Z Lyu, S Chen, X Li, Y Qiao</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve"> Visual knowledge graph for human action
 													reasoning in videos[C]</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the 30th ACM
 														International Conference on Multimedia (ACM MM-22),
 												2022: 4132-4141</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>https://dl.acm.org/doi/abs/10.1145/3503161.3548257</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>H Zhang, E Yuan, W Guo, Z He, J Qin, H Guo, B Chen, X Li, R Tang</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">
 												Disentangling Past-Future Modeling in Sequential
 													Recommendation via Dual Networks[C]</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the
 														31st ACM International Conference on Information &amp; Knowledge
 														Management (CIKM-22), 2022: 2549-2558</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>https://doi.org/10.1145/3511808.3557289</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>R Yang, Y Lu, W Li, H Sun, M Fang, Y Du, X Li, et al</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve"> Rethinking Goal-conditioned Supervised Learning
 													and Its Connection to Offline RL[C]</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the
 														International Conference on Learning Representations
 														(ICLR-22), 2022</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2202.04478v1</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>EI</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>Jiafei Lyu, Xiaoteng Ma, Jiangpeng Yan, Xiu Li</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve"> Efficient continuous control with double actors
 													and regularized critics[C]</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the AAAI
 														Conference on Artificial Intelligence (AAAI-22), 2022</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>https://ojs.aaai.org/index.php/AAAI/article/view/20732/20491</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>Shuyan Li, Xiu Li, Jiwen Lu, Jie Zhou</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve"> Self-supervised video hashing via bidirectional
 													transformers[C]</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the IEEE/CVF
 														Conference on Computer Vision and Pattern Recognition
 														(CVPR-21) 2021:13549-13558</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/9577815</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>Wang Z, Zhou L, Wang L, Li X</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve"> A
 													Self-boosting Framework for Automated Radiographic Report
 													Generation[C]</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the IEEE/CVF Conference
 														on Computer Vision and Pattern Recognition (CVPR-21),
 												2021, 2433-2442</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>https://openaccess.thecvf.com/content/CVPR2021/papers/Wang_A_Self-Boosting_Framework_for_Automated_Radiographic_Report_Generation_CVPR_2021_paper.pdf</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>Lufan Ma, Tiancai Wang, Bin Dong, Jiangpeng Yan, Xiu Li, Xiangyu Zhang</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve"> Implicit Feature Refinement for Instance
 													Segmentation[C]</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the 29th ACM
 														International Conference on Multimedia (ACMMM-21) 2021,
 												3088-3096</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2112.04709</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>Xu, Z, Lu D, Wang Y, Luo J, Jayender J, Ma K, Zheng Y, Li X</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve"> Noisy labels are treasure:
 													mean-teacher-assisted confident learning for hepatic vessel
 													segmentation[C]</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the International
 														Conference on Medical Image Computing and Computer-Assisted
 														Intervention (MICCAI-21), 2021, 3-13</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2106.01860</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>J Yan, H Chen, K Wang, Y Ji, Y Zhu, J Li, D Xie, Z Xu, J Huang, S Cheng,
 												X Li, J Yao</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve"> Hierarchical
 													attention guided framework for multi-resolution collaborative whole
 													slide image segmentation[C]</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the
 														International Conference on Medical Image Computing and
@@ -2785,156 +3500,156 @@
 												153-163</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>https://link.springer.com/chapter/10.1007/978-3-030-87237-3_15</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>Yu B, Li W, Li X, et al</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve"> Frequency-aware spatiotemporal transformers for
 													video inpainting detection[C]</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the IEEE
 														International Conference on Computer Vision (ICCV-21)</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/9710661</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>EI/SCI</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>Xu Z, Yan J, Luo J, Li X, et al</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Unsupervised multimodal image registration with
 													adaptative gradient guidance[C]</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the IEEE
 														International Conference on Acoustics, Speech and Signal
 														Processing (ICASSP-21)</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/abstract/document/9414320</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>Ma L, Dong B, Yan J, et al</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve"> Matting
 													enhanced mask R-CNN[C]</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of the 2021 IEEE
 														International Conference on Multimedia and Expo
 														(ICME-21)</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/abstract/document/9428183</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>EI</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Xiu Li</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>EI/SCI</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Xiu Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>Xu Z, Luo J, Yan J, Li X，et al</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve"> Adversarial uni-and multi-modal stream networks
 													for multimodal image registration[C]</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve"> In Proceedings of
 														the International Conference on Medical Image Computing and
 														Computer-Assisted Intervention (MICCAI-20)</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>https://link.springer.com/chapter/10.1007/978-3-030-59716-0_22</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>EI</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>Xiu Li</t>
         </is>
